--- a/Out/Logic adapter_Rev2_BOM.xlsx
+++ b/Out/Logic adapter_Rev2_BOM.xlsx
@@ -67,7 +67,7 @@
     <t>30.04.2021</t>
   </si>
   <si>
-    <t>1:17</t>
+    <t>1:39</t>
   </si>
   <si>
     <t>81</t>

--- a/Out/Logic adapter_Rev2_BOM.xlsx
+++ b/Out/Logic adapter_Rev2_BOM.xlsx
@@ -67,7 +67,7 @@
     <t>30.04.2021</t>
   </si>
   <si>
-    <t>1:39</t>
+    <t>1:54</t>
   </si>
   <si>
     <t>81</t>

--- a/Out/Logic adapter_Rev2_BOM.xlsx
+++ b/Out/Logic adapter_Rev2_BOM.xlsx
@@ -67,7 +67,7 @@
     <t>30.04.2021</t>
   </si>
   <si>
-    <t>1:54</t>
+    <t>2:06</t>
   </si>
   <si>
     <t>81</t>
